--- a/output/inference_results/test_sheets/batch_004/test_sheet (36).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (36).xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1总胆红素TB</t>
+          <t>总胆红素</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2直接胆红素DB</t>
+          <t>直接胆红素</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3间接胆红素IB</t>
+          <t>间接胆红素</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4总蛋白TP</t>
+          <t>总蛋白</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5白蛋白ALB</t>
+          <t>白蛋白</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6球蛋白</t>
+          <t>球蛋白</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7白球比A/G</t>
+          <t>白球比</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8谷丙转氨酶ALT</t>
+          <t>谷丙转氨酶</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9 谷氨酰转酥酶GGT</t>
+          <t>γ谷氨酰转肽酶</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10碱性磷酸酶ALP</t>
+          <t>碱性磷酸酶</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11谷草转氨酶AST</t>
+          <t>谷草转氨酶</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12AST/ALT</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
